--- a/pred_ohlcv/54_21/2019-10-26 PAY ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-26 PAY ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>45658.03685989147</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>45658.03685989147</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>45658.03685989147</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>43058.48155989147</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>43058.48155989147</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>36449.66625989147</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-3550.33374010853</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-3540.15374010853</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-133031.8982401085</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-140310.2692401086</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-155411.6356401086</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-131101.7062401086</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-131101.7062401086</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-138203.7062401086</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-138203.7062401086</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-130403.7062401086</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-130403.7062401086</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-130403.7062401086</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-130403.7062401086</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-150653.6333401086</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-146065.3980401086</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-170081.2097401085</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-188114.2854401086</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-187590.5024401086</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-188505.5024401086</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-429896.1348401085</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-429896.1348401085</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-432479.3028401085</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-432079.3028401085</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-432079.3028401085</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-430117.3028401085</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-429949.6740401085</v>
       </c>
       <c r="H124">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-429949.6740401085</v>
       </c>
       <c r="H125">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-429949.6740401085</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-429949.6740401085</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-429949.6740401085</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-429949.6740401085</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-428742.7740401085</v>
       </c>
       <c r="H130">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-428742.7740401085</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-432921.6214401085</v>
       </c>
       <c r="H132">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-432921.6214401085</v>
       </c>
       <c r="H133">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-432921.6214401085</v>
       </c>
       <c r="H134">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-432861.8052401085</v>
       </c>
       <c r="H135">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-433912.9545401085</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-433841.8585401085</v>
       </c>
       <c r="H137">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-433856.8585401085</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-433846.0585401085</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-434101.7453401085</v>
       </c>
       <c r="H140">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-434101.7453401085</v>
       </c>
       <c r="H141">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-427301.7453401085</v>
       </c>
       <c r="H142">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-428901.7453401085</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-424006.0641401085</v>
       </c>
       <c r="H144">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-424016.0641401085</v>
       </c>
       <c r="H145">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-423616.0641401085</v>
       </c>
       <c r="H146">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-417216.0641401085</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-417216.0641401085</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-412413.0641401085</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-412413.0641401085</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-405477.0641401085</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-410539.0641401085</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-407051.2997401085</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>-403554.9331401085</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-403554.9331401085</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-403554.9331401085</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>-313821.6692741845</v>
       </c>
       <c r="H214">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>-313018.1490741845</v>
       </c>
       <c r="H217">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>-313018.1490741845</v>
       </c>
       <c r="H218">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>-313425.2640741845</v>
       </c>
       <c r="H220">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>-312321.2997741845</v>
       </c>
       <c r="H222">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>-314275.2344741845</v>
       </c>
       <c r="H223">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>-314255.2344741845</v>
       </c>
       <c r="H224">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>-314655.2344741845</v>
       </c>
       <c r="H225">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>-315320.2084741844</v>
       </c>
       <c r="H227">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>-326204.1833741845</v>
       </c>
       <c r="H250">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>-318085.7461741845</v>
       </c>
       <c r="H253">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>-318108.7461741845</v>
       </c>
       <c r="H254">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>-329446.6430741845</v>
       </c>
       <c r="H255">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>-309948.6388741845</v>
       </c>
       <c r="H274">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>-309948.6388741845</v>
       </c>
       <c r="H275">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>-309948.6388741845</v>
       </c>
       <c r="H276">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>-309948.6388741845</v>
       </c>
       <c r="H277">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>-309948.6388741845</v>
       </c>
       <c r="H278">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>-309948.6388741845</v>
       </c>
       <c r="H279">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>-309948.6388741845</v>
       </c>
       <c r="H280">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>-309948.6388741845</v>
       </c>
       <c r="H281">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>-309148.6388741845</v>
       </c>
       <c r="H282">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>-309148.6388741845</v>
       </c>
       <c r="H283">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>-309148.6388741845</v>
       </c>
       <c r="H284">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>-309148.6388741845</v>
       </c>
       <c r="H285">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>-309148.6388741845</v>
       </c>
       <c r="H286">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>-309148.6388741845</v>
       </c>
       <c r="H287">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>-309148.6388741845</v>
       </c>
       <c r="H288">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>-309148.6388741845</v>
       </c>
       <c r="H289">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>-309148.6388741845</v>
       </c>
       <c r="H290">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>-309148.6388741845</v>
       </c>
       <c r="H291">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>-309148.6388741845</v>
       </c>
       <c r="H292">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>-309148.6388741845</v>
       </c>
       <c r="H293">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>-308848.6388741845</v>
       </c>
       <c r="H294">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>-308848.6388741845</v>
       </c>
       <c r="H295">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>-308848.6388741845</v>
       </c>
       <c r="H296">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>-298528.6388741845</v>
       </c>
       <c r="H297">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>-298528.6388741845</v>
       </c>
       <c r="H298">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>-298528.6388741845</v>
       </c>
       <c r="H299">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>-298528.6388741845</v>
       </c>
       <c r="H300">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>-298528.6388741845</v>
       </c>
       <c r="H301">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>-298528.6388741845</v>
       </c>
       <c r="H302">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>-293704.3230741845</v>
       </c>
       <c r="H303">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>-329582.5254741845</v>
       </c>
       <c r="H304">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>-201554.7278741845</v>
       </c>
       <c r="H305">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>-264140.5296741845</v>
       </c>
       <c r="H306">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>-264140.5296741845</v>
       </c>
       <c r="H307">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>-292088.2656741845</v>
       </c>
       <c r="H308">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>-292088.2656741845</v>
       </c>
       <c r="H309">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>-269213.2656741845</v>
       </c>
       <c r="H310">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>-269213.2656741845</v>
       </c>
       <c r="H311">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>-342152.8279741845</v>
       </c>
       <c r="H312">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>-340152.8279741845</v>
       </c>
       <c r="H313">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>-586033.3763741845</v>
       </c>
       <c r="H403">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>-579233.3763741845</v>
       </c>
       <c r="H404">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>-578033.3763741845</v>
       </c>
       <c r="H405">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -10948,7 +10948,7 @@
         <v>-578033.3763741845</v>
       </c>
       <c r="H406">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>-608386.2975741845</v>
       </c>
       <c r="H421">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>-608376.2975741845</v>
       </c>
       <c r="H422">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -11390,7 +11390,7 @@
         <v>-610704.2975741845</v>
       </c>
       <c r="H423">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>-619228.1836741846</v>
       </c>
       <c r="H432">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -11650,7 +11650,7 @@
         <v>-618853.1836741846</v>
       </c>
       <c r="H433">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -11676,7 +11676,7 @@
         <v>-618853.1836741846</v>
       </c>
       <c r="H434">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -11702,7 +11702,7 @@
         <v>-619425.1836741846</v>
       </c>
       <c r="H435">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -11728,7 +11728,7 @@
         <v>-611671.6436741846</v>
       </c>
       <c r="H436">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -11754,7 +11754,7 @@
         <v>-611671.6436741846</v>
       </c>
       <c r="H437">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -11780,7 +11780,7 @@
         <v>-595677.9517741846</v>
       </c>
       <c r="H438">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -11806,7 +11806,7 @@
         <v>-595677.9517741846</v>
       </c>
       <c r="H439">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -11832,7 +11832,7 @@
         <v>-595677.9517741846</v>
       </c>
       <c r="H440">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -11858,7 +11858,7 @@
         <v>-595677.9517741846</v>
       </c>
       <c r="H441">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -11884,7 +11884,7 @@
         <v>-583882.2402741846</v>
       </c>
       <c r="H442">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -11910,7 +11910,7 @@
         <v>-553882.2402741846</v>
       </c>
       <c r="H443">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -11936,7 +11936,7 @@
         <v>-553892.2402741846</v>
       </c>
       <c r="H444">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2019-10-26 PAY ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-26 PAY ohlcv.xlsx
@@ -652,7 +652,7 @@
         <v>-133031.8982401085</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-133031.8982401085</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-140310.2692401086</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-155411.6356401086</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-131101.7062401086</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-131101.7062401086</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-138203.7062401086</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-138203.7062401086</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-130403.7062401086</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-130403.7062401086</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-130403.7062401086</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-130403.7062401086</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-150653.6333401086</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-146065.3980401086</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-170081.2097401085</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-188114.2854401086</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-187590.5024401086</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-188505.5024401086</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-429896.1348401085</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-429896.1348401085</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-432479.3028401085</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-432079.3028401085</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-432079.3028401085</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-430117.3028401085</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-429949.6740401085</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-429949.6740401085</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-429949.6740401085</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-429949.6740401085</v>
       </c>
       <c r="H127">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-429949.6740401085</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-429949.6740401085</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-428742.7740401085</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-428742.7740401085</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-432921.6214401085</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-432921.6214401085</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-432921.6214401085</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-432861.8052401085</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-433912.9545401085</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-433841.8585401085</v>
       </c>
       <c r="H137">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-433856.8585401085</v>
       </c>
       <c r="H138">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-433846.0585401085</v>
       </c>
       <c r="H139">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-434101.7453401085</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-434101.7453401085</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-427301.7453401085</v>
       </c>
       <c r="H142">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-428901.7453401085</v>
       </c>
       <c r="H143">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-424006.0641401085</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-424016.0641401085</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-423616.0641401085</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-417216.0641401085</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-417216.0641401085</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-412413.0641401085</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-412413.0641401085</v>
       </c>
       <c r="H150">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-405477.0641401085</v>
       </c>
       <c r="H151">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-410539.0641401085</v>
       </c>
       <c r="H152">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-407051.2997401085</v>
       </c>
       <c r="H157">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>-403554.9331401085</v>
       </c>
       <c r="H158">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-403554.9331401085</v>
       </c>
       <c r="H159">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-403554.9331401085</v>
       </c>
       <c r="H160">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>-313430.6692741845</v>
       </c>
       <c r="H213">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>-313821.6692741845</v>
       </c>
       <c r="H214">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>-313018.1490741845</v>
       </c>
       <c r="H215">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>-313018.1490741845</v>
       </c>
       <c r="H216">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>-313018.1490741845</v>
       </c>
       <c r="H217">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>-313018.1490741845</v>
       </c>
       <c r="H218">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>-313018.1490741845</v>
       </c>
       <c r="H219">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>-313425.2640741845</v>
       </c>
       <c r="H220">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>-312321.2997741845</v>
       </c>
       <c r="H221">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>-312321.2997741845</v>
       </c>
       <c r="H222">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>-314275.2344741845</v>
       </c>
       <c r="H223">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>-314255.2344741845</v>
       </c>
       <c r="H224">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>-314655.2344741845</v>
       </c>
       <c r="H225">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>-314645.2344741845</v>
       </c>
       <c r="H226">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>-315320.2084741844</v>
       </c>
       <c r="H227">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>-325804.1833741845</v>
       </c>
       <c r="H249">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>-326204.1833741845</v>
       </c>
       <c r="H250">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>-318108.7461741845</v>
       </c>
       <c r="H254">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>-329446.6430741845</v>
       </c>
       <c r="H255">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>-321073.6388741845</v>
       </c>
       <c r="H269">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>-319522.6388741845</v>
       </c>
       <c r="H270">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>-319522.6388741845</v>
       </c>
       <c r="H271">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>-319522.6388741845</v>
       </c>
       <c r="H272">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>-319522.6388741845</v>
       </c>
       <c r="H273">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>-309948.6388741845</v>
       </c>
       <c r="H274">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>-309948.6388741845</v>
       </c>
       <c r="H275">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>-309948.6388741845</v>
       </c>
       <c r="H276">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>-309948.6388741845</v>
       </c>
       <c r="H277">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>-309948.6388741845</v>
       </c>
       <c r="H278">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>-309948.6388741845</v>
       </c>
       <c r="H279">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>-309948.6388741845</v>
       </c>
       <c r="H280">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>-309948.6388741845</v>
       </c>
       <c r="H281">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>-309148.6388741845</v>
       </c>
       <c r="H282">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>-309148.6388741845</v>
       </c>
       <c r="H283">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>-309148.6388741845</v>
       </c>
       <c r="H284">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>-309148.6388741845</v>
       </c>
       <c r="H285">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>-309148.6388741845</v>
       </c>
       <c r="H286">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>-309148.6388741845</v>
       </c>
       <c r="H287">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>-309148.6388741845</v>
       </c>
       <c r="H288">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>-309148.6388741845</v>
       </c>
       <c r="H289">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>-309148.6388741845</v>
       </c>
       <c r="H290">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>-309148.6388741845</v>
       </c>
       <c r="H291">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>-309148.6388741845</v>
       </c>
       <c r="H292">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>-309148.6388741845</v>
       </c>
       <c r="H293">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>-308848.6388741845</v>
       </c>
       <c r="H294">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>-308848.6388741845</v>
       </c>
       <c r="H295">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>-308848.6388741845</v>
       </c>
       <c r="H296">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>-298528.6388741845</v>
       </c>
       <c r="H297">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>-298528.6388741845</v>
       </c>
       <c r="H298">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>-298528.6388741845</v>
       </c>
       <c r="H299">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>-298528.6388741845</v>
       </c>
       <c r="H300">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>-298528.6388741845</v>
       </c>
       <c r="H301">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>-298528.6388741845</v>
       </c>
       <c r="H302">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>-293704.3230741845</v>
       </c>
       <c r="H303">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>-329582.5254741845</v>
       </c>
       <c r="H304">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>-201554.7278741845</v>
       </c>
       <c r="H305">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>-264140.5296741845</v>
       </c>
       <c r="H306">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>-264140.5296741845</v>
       </c>
       <c r="H307">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>-292088.2656741845</v>
       </c>
       <c r="H308">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>-342152.8279741845</v>
       </c>
       <c r="H312">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>-608386.2975741845</v>
       </c>
       <c r="H421">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>-608376.2975741845</v>
       </c>
       <c r="H422">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -11390,7 +11390,7 @@
         <v>-610704.2975741845</v>
       </c>
       <c r="H423">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -11520,7 +11520,7 @@
         <v>-610017.0165741845</v>
       </c>
       <c r="H428">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>-612602.4355741845</v>
       </c>
       <c r="H429">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>-619228.1836741846</v>
       </c>
       <c r="H432">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -11650,7 +11650,7 @@
         <v>-618853.1836741846</v>
       </c>
       <c r="H433">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -11676,7 +11676,7 @@
         <v>-618853.1836741846</v>
       </c>
       <c r="H434">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -11728,7 +11728,7 @@
         <v>-611671.6436741846</v>
       </c>
       <c r="H436">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -11754,7 +11754,7 @@
         <v>-611671.6436741846</v>
       </c>
       <c r="H437">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -11780,7 +11780,7 @@
         <v>-595677.9517741846</v>
       </c>
       <c r="H438">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -11806,7 +11806,7 @@
         <v>-595677.9517741846</v>
       </c>
       <c r="H439">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -11832,7 +11832,7 @@
         <v>-595677.9517741846</v>
       </c>
       <c r="H440">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -11858,7 +11858,7 @@
         <v>-595677.9517741846</v>
       </c>
       <c r="H441">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -11884,7 +11884,7 @@
         <v>-583882.2402741846</v>
       </c>
       <c r="H442">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -11910,7 +11910,7 @@
         <v>-553882.2402741846</v>
       </c>
       <c r="H443">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -11936,7 +11936,7 @@
         <v>-553892.2402741846</v>
       </c>
       <c r="H444">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
